--- a/Analyzer Results/RESULTS_MERGED_EXP.xlsx
+++ b/Analyzer Results/RESULTS_MERGED_EXP.xlsx
@@ -511,16 +511,16 @@
         <v>17.89444444444445</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03858951715479181</v>
+        <v>51.03333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03405549444206721</v>
+        <v>13.09052777777778</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6981448277406046</v>
+        <v>154.9486388888889</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03517784515903162</v>
+        <v>5141.523499999999</v>
       </c>
     </row>
     <row r="3">
@@ -549,16 +549,16 @@
         <v>19.16111111111111</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2042452394401734</v>
+        <v>81.55555555555556</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2256213330570328</v>
+        <v>21.97744444444444</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7409577912044321</v>
+        <v>160.3030833333333</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2961286816596375</v>
+        <v>9320.026638888889</v>
       </c>
     </row>
     <row r="4">
@@ -587,16 +587,16 @@
         <v>21.00555555555556</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1159173898112283</v>
+        <v>68.37777777777778</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1627868676284511</v>
+        <v>19.79555555555556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9326489694313076</v>
+        <v>199.1854166666667</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2687089475843092</v>
+        <v>9001.01661111111</v>
       </c>
     </row>
     <row r="5">
@@ -625,16 +625,16 @@
         <v>19.40925925925926</v>
       </c>
       <c r="G5" t="n">
-        <v>0.107997489203669</v>
+        <v>66.99259259259259</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1207153301841286</v>
+        <v>18.12261111111111</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7459218971873913</v>
+        <v>160.959787037037</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1452619142733467</v>
+        <v>7400.116046296297</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         <v>20.78888888888889</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4907946922889536</v>
+        <v>116.0861111111111</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5917765857945996</v>
+        <v>33.21086111111111</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8329792119258055</v>
+        <v>174.2913888888889</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7264245553221707</v>
+        <v>14626.94758333333</v>
       </c>
     </row>
     <row r="7">
@@ -701,16 +701,16 @@
         <v>21.40555555555556</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3571097168130495</v>
+        <v>100.325</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4009032021800535</v>
+        <v>27.31283333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>0.621578358357974</v>
+        <v>146.3938888888889</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4489676841638791</v>
+        <v>11037.77788888889</v>
       </c>
     </row>
     <row r="8">
@@ -739,16 +739,16 @@
         <v>19.01851851851852</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5407820268496182</v>
+        <v>122.2416666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.59282251267922</v>
+        <v>33.24593518518518</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6713984765075293</v>
+        <v>151.8361944444445</v>
       </c>
       <c r="J8" t="n">
-        <v>0.655243123936174</v>
+        <v>13564.09412037037</v>
       </c>
     </row>
     <row r="9">
@@ -777,16 +777,16 @@
         <v>22.31111111111111</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9837250921010062</v>
+        <v>253.7324074074074</v>
       </c>
       <c r="H9" t="n">
-        <v>0.989935854982616</v>
+        <v>68.29277777777777</v>
       </c>
       <c r="I9" t="n">
-        <v>0.742030094507937</v>
+        <v>160.4442314814815</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9942800359790431</v>
+        <v>27521.70260185185</v>
       </c>
     </row>
     <row r="10">
@@ -815,16 +815,16 @@
         <v>19.82962962962963</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6919890497403784</v>
+        <v>143.2564814814815</v>
       </c>
       <c r="H10" t="n">
-        <v>0.650442725480782</v>
+        <v>35.26078703703703</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1679053653729846</v>
+        <v>101.1248055555556</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5614820778831864</v>
+        <v>12349.21887037037</v>
       </c>
     </row>
     <row r="11">
@@ -853,16 +853,16 @@
         <v>22.07037037037037</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6957340258090501</v>
+        <v>143.8490740740741</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7340906960816715</v>
+        <v>38.5919537037037</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5258139143148142</v>
+        <v>136.7964351851852</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6983232175922521</v>
+        <v>14187.8535462963</v>
       </c>
     </row>
     <row r="12">
@@ -891,16 +891,16 @@
         <v>22.03148148148148</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9538760421864587</v>
+        <v>219.0037037037037</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9174981272937079</v>
+        <v>50.60387037037037</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01937598532210936</v>
+        <v>70.51983333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>0.802991578757945</v>
+        <v>16014.40355555556</v>
       </c>
     </row>
     <row r="13">
@@ -929,16 +929,16 @@
         <v>20.17777777777778</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8854925570593294</v>
+        <v>185.6916666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9186480040540558</v>
+        <v>50.73413888888889</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7422234359356799</v>
+        <v>160.4697222222222</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9394988311528774</v>
+        <v>20328.45875</v>
       </c>
     </row>
     <row r="14">
@@ -967,16 +967,16 @@
         <v>20.4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4219820257334234</v>
+        <v>107.9111111111111</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3878168773869448</v>
+        <v>26.92652777777778</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3036735658474968</v>
+        <v>115.81075</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3040620900804145</v>
+        <v>9411.079861111111</v>
       </c>
     </row>
     <row r="15">
@@ -1005,16 +1005,16 @@
         <v>14.57777777777778</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3687910323960447</v>
+        <v>101.6916666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2869169690461649</v>
+        <v>23.9125</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2788239537400465</v>
+        <v>113.3460555555556</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2510455873543982</v>
+        <v>8791.101638888889</v>
       </c>
     </row>
     <row r="16">
@@ -1043,16 +1043,16 @@
         <v>18.82777777777778</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7414090679208842</v>
+        <v>151.5138888888889</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4969267838166297</v>
+        <v>30.18658333333333</v>
       </c>
       <c r="I16" t="n">
-        <v>0.005780026421411381</v>
+        <v>59.98061111111112</v>
       </c>
       <c r="J16" t="n">
-        <v>0.295520899745901</v>
+        <v>9313.030583333333</v>
       </c>
     </row>
     <row r="17">
@@ -1081,16 +1081,16 @@
         <v>18.52222222222222</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1446792104668022</v>
+        <v>73.05000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1333847799701518</v>
+        <v>18.65216666666667</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6684905204527625</v>
+        <v>151.50675</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1375312606097358</v>
+        <v>7283.675527777778</v>
       </c>
     </row>
     <row r="18">
@@ -1119,16 +1119,16 @@
         <v>22.28888888888889</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5520738828627322</v>
+        <v>123.6694444444445</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6424162933620621</v>
+        <v>34.96922222222222</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5935720679901672</v>
+        <v>143.492</v>
       </c>
       <c r="J18" t="n">
-        <v>0.711084458156481</v>
+        <v>14383.65822222222</v>
       </c>
     </row>
     <row r="19">
@@ -1157,16 +1157,16 @@
         <v>20.14444444444445</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5236927926316169</v>
+        <v>120.1092592592593</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4848106243909666</v>
+        <v>29.81715740740741</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3525303745406215</v>
+        <v>120.5108240740741</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3998134068210877</v>
+        <v>10487.19562962963</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MERGED_EXP.xlsx
+++ b/Analyzer Results/RESULTS_MERGED_EXP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,32 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -514,13 +529,22 @@
         <v>51.03333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>13.09052777777778</v>
+        <v>51.44552777777778</v>
       </c>
       <c r="I2" t="n">
+        <v>46.05672222222222</v>
+      </c>
+      <c r="J2" t="n">
+        <v>19.89066666666666</v>
+      </c>
+      <c r="K2" t="n">
         <v>154.9486388888889</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>5141.523499999999</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.425882352941176</v>
       </c>
     </row>
     <row r="3">
@@ -552,13 +576,22 @@
         <v>81.55555555555556</v>
       </c>
       <c r="H3" t="n">
-        <v>21.97744444444444</v>
+        <v>81.60941666666666</v>
       </c>
       <c r="I3" t="n">
+        <v>73.07680555555555</v>
+      </c>
+      <c r="J3" t="n">
+        <v>32.69605555555555</v>
+      </c>
+      <c r="K3" t="n">
         <v>160.3030833333333</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>9320.026638888889</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8.425882352941176</v>
       </c>
     </row>
     <row r="4">
@@ -581,22 +614,31 @@
         <v>11.61111111111111</v>
       </c>
       <c r="E4" t="n">
-        <v>32.61666666666667</v>
+        <v>31.68333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>21.00555555555556</v>
+        <v>20.07222222222222</v>
       </c>
       <c r="G4" t="n">
-        <v>68.37777777777778</v>
+        <v>68.36666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>19.79555555555556</v>
+        <v>68.57730555555555</v>
       </c>
       <c r="I4" t="n">
-        <v>199.1854166666667</v>
+        <v>61.21361111111111</v>
       </c>
       <c r="J4" t="n">
-        <v>9001.01661111111</v>
+        <v>28.68847222222222</v>
+      </c>
+      <c r="K4" t="n">
+        <v>204.5681944444444</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9013.916722222222</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.425882352941176</v>
       </c>
     </row>
     <row r="5">
@@ -628,13 +670,22 @@
         <v>66.99259259259259</v>
       </c>
       <c r="H5" t="n">
-        <v>18.12261111111111</v>
+        <v>67.34049074074073</v>
       </c>
       <c r="I5" t="n">
+        <v>58.88837037037037</v>
+      </c>
+      <c r="J5" t="n">
+        <v>27.27477777777778</v>
+      </c>
+      <c r="K5" t="n">
         <v>160.959787037037</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7400.116046296297</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.538235294117647</v>
       </c>
     </row>
     <row r="6">
@@ -666,13 +717,22 @@
         <v>116.0861111111111</v>
       </c>
       <c r="H6" t="n">
-        <v>33.21086111111111</v>
+        <v>116.2571388888889</v>
       </c>
       <c r="I6" t="n">
+        <v>102.6871666666667</v>
+      </c>
+      <c r="J6" t="n">
+        <v>48.84283333333334</v>
+      </c>
+      <c r="K6" t="n">
         <v>174.2913888888889</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>14626.94758333333</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.538235294117647</v>
       </c>
     </row>
     <row r="7">
@@ -704,13 +764,22 @@
         <v>100.325</v>
       </c>
       <c r="H7" t="n">
-        <v>27.31283333333333</v>
+        <v>100.5505277777778</v>
       </c>
       <c r="I7" t="n">
+        <v>90.30333333333334</v>
+      </c>
+      <c r="J7" t="n">
+        <v>41.20794444444444</v>
+      </c>
+      <c r="K7" t="n">
         <v>146.3938888888889</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>11037.77788888889</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.538235294117647</v>
       </c>
     </row>
     <row r="8">
@@ -742,13 +811,22 @@
         <v>122.2416666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>33.24593518518518</v>
+        <v>121.9639351851852</v>
       </c>
       <c r="I8" t="n">
+        <v>112.2767407407407</v>
+      </c>
+      <c r="J8" t="n">
+        <v>49.97112037037037</v>
+      </c>
+      <c r="K8" t="n">
         <v>151.8361944444445</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>13564.09412037037</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.354117647058823</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +858,22 @@
         <v>253.7324074074074</v>
       </c>
       <c r="H9" t="n">
-        <v>68.29277777777777</v>
+        <v>252.5991759259259</v>
       </c>
       <c r="I9" t="n">
+        <v>232.9531666666667</v>
+      </c>
+      <c r="J9" t="n">
+        <v>102.0334537037037</v>
+      </c>
+      <c r="K9" t="n">
         <v>160.4442314814815</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>27521.70260185185</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.354117647058823</v>
       </c>
     </row>
     <row r="10">
@@ -818,13 +905,22 @@
         <v>143.2564814814815</v>
       </c>
       <c r="H10" t="n">
-        <v>35.26078703703703</v>
+        <v>143.0892037037037</v>
       </c>
       <c r="I10" t="n">
+        <v>129.7552592592593</v>
+      </c>
+      <c r="J10" t="n">
+        <v>54.42422222222223</v>
+      </c>
+      <c r="K10" t="n">
         <v>101.1248055555556</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>12349.21887037037</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.354117647058823</v>
       </c>
     </row>
     <row r="11">
@@ -856,13 +952,22 @@
         <v>143.8490740740741</v>
       </c>
       <c r="H11" t="n">
-        <v>38.5919537037037</v>
+        <v>142.3354814814815</v>
       </c>
       <c r="I11" t="n">
+        <v>126.3355925925926</v>
+      </c>
+      <c r="J11" t="n">
+        <v>59.17541666666667</v>
+      </c>
+      <c r="K11" t="n">
         <v>136.7964351851852</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>14187.8535462963</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11.51588235294118</v>
       </c>
     </row>
     <row r="12">
@@ -894,13 +999,22 @@
         <v>219.0037037037037</v>
       </c>
       <c r="H12" t="n">
-        <v>50.60387037037037</v>
+        <v>218.3167685185185</v>
       </c>
       <c r="I12" t="n">
+        <v>191.1711203703704</v>
+      </c>
+      <c r="J12" t="n">
+        <v>78.73600925925926</v>
+      </c>
+      <c r="K12" t="n">
         <v>70.51983333333334</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>16014.40355555556</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11.51588235294118</v>
       </c>
     </row>
     <row r="13">
@@ -932,13 +1046,22 @@
         <v>185.6916666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>50.73413888888889</v>
+        <v>185.6941944444444</v>
       </c>
       <c r="I13" t="n">
+        <v>165.8295833333333</v>
+      </c>
+      <c r="J13" t="n">
+        <v>76.59886111111112</v>
+      </c>
+      <c r="K13" t="n">
         <v>160.4697222222222</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>20328.45875</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11.51588235294118</v>
       </c>
     </row>
     <row r="14">
@@ -970,13 +1093,22 @@
         <v>107.9111111111111</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92652777777778</v>
+        <v>107.9314166666667</v>
       </c>
       <c r="I14" t="n">
+        <v>99.19644444444445</v>
+      </c>
+      <c r="J14" t="n">
+        <v>41.57172222222223</v>
+      </c>
+      <c r="K14" t="n">
         <v>115.81075</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>9411.079861111111</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9.131764705882354</v>
       </c>
     </row>
     <row r="15">
@@ -1008,13 +1140,22 @@
         <v>101.6916666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>23.9125</v>
+        <v>101.9561388888889</v>
       </c>
       <c r="I15" t="n">
+        <v>92.08230555555556</v>
+      </c>
+      <c r="J15" t="n">
+        <v>36.67308333333333</v>
+      </c>
+      <c r="K15" t="n">
         <v>113.3460555555556</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>8791.101638888889</v>
+      </c>
+      <c r="M15" t="n">
+        <v>9.131764705882354</v>
       </c>
     </row>
     <row r="16">
@@ -1046,13 +1187,22 @@
         <v>151.5138888888889</v>
       </c>
       <c r="H16" t="n">
-        <v>30.18658333333333</v>
+        <v>151.72325</v>
       </c>
       <c r="I16" t="n">
+        <v>140.1359722222222</v>
+      </c>
+      <c r="J16" t="n">
+        <v>46.45413888888888</v>
+      </c>
+      <c r="K16" t="n">
         <v>59.98061111111112</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>9313.030583333333</v>
+      </c>
+      <c r="M16" t="n">
+        <v>9.131764705882354</v>
       </c>
     </row>
     <row r="17">
@@ -1084,13 +1234,22 @@
         <v>73.05000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>18.65216666666667</v>
+        <v>73.31824999999999</v>
       </c>
       <c r="I17" t="n">
+        <v>66.43708333333333</v>
+      </c>
+      <c r="J17" t="n">
+        <v>28.31416666666667</v>
+      </c>
+      <c r="K17" t="n">
         <v>151.50675</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>7283.675527777778</v>
+      </c>
+      <c r="M17" t="n">
+        <v>12.44411764705882</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1281,22 @@
         <v>123.6694444444445</v>
       </c>
       <c r="H18" t="n">
-        <v>34.96922222222222</v>
+        <v>123.0081944444444</v>
       </c>
       <c r="I18" t="n">
+        <v>111.9531111111111</v>
+      </c>
+      <c r="J18" t="n">
+        <v>52.42277777777778</v>
+      </c>
+      <c r="K18" t="n">
         <v>143.492</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>14383.65822222222</v>
+      </c>
+      <c r="M18" t="n">
+        <v>12.44411764705882</v>
       </c>
     </row>
     <row r="19">
@@ -1160,13 +1328,22 @@
         <v>120.1092592592593</v>
       </c>
       <c r="H19" t="n">
-        <v>29.81715740740741</v>
+        <v>119.9217314814815</v>
       </c>
       <c r="I19" t="n">
+        <v>109.8605833333333</v>
+      </c>
+      <c r="J19" t="n">
+        <v>46.16347222222223</v>
+      </c>
+      <c r="K19" t="n">
         <v>120.5108240740741</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>10487.19562962963</v>
+      </c>
+      <c r="M19" t="n">
+        <v>12.44411764705882</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MERGED_EXP.xlsx
+++ b/Analyzer Results/RESULTS_MERGED_EXP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -543,9 +538,6 @@
       <c r="L2" t="n">
         <v>5141.523499999999</v>
       </c>
-      <c r="M2" t="n">
-        <v>8.425882352941176</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -590,9 +582,6 @@
       <c r="L3" t="n">
         <v>9320.026638888889</v>
       </c>
-      <c r="M3" t="n">
-        <v>8.425882352941176</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -637,9 +626,6 @@
       <c r="L4" t="n">
         <v>9013.916722222222</v>
       </c>
-      <c r="M4" t="n">
-        <v>8.425882352941176</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -684,9 +670,6 @@
       <c r="L5" t="n">
         <v>7400.116046296297</v>
       </c>
-      <c r="M5" t="n">
-        <v>6.538235294117647</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -731,9 +714,6 @@
       <c r="L6" t="n">
         <v>14626.94758333333</v>
       </c>
-      <c r="M6" t="n">
-        <v>6.538235294117647</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -778,9 +758,6 @@
       <c r="L7" t="n">
         <v>11037.77788888889</v>
       </c>
-      <c r="M7" t="n">
-        <v>6.538235294117647</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -825,9 +802,6 @@
       <c r="L8" t="n">
         <v>13564.09412037037</v>
       </c>
-      <c r="M8" t="n">
-        <v>6.354117647058823</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -872,9 +846,6 @@
       <c r="L9" t="n">
         <v>27521.70260185185</v>
       </c>
-      <c r="M9" t="n">
-        <v>6.354117647058823</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -919,9 +890,6 @@
       <c r="L10" t="n">
         <v>12349.21887037037</v>
       </c>
-      <c r="M10" t="n">
-        <v>6.354117647058823</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -966,9 +934,6 @@
       <c r="L11" t="n">
         <v>14187.8535462963</v>
       </c>
-      <c r="M11" t="n">
-        <v>11.51588235294118</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1013,9 +978,6 @@
       <c r="L12" t="n">
         <v>16014.40355555556</v>
       </c>
-      <c r="M12" t="n">
-        <v>11.51588235294118</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1060,9 +1022,6 @@
       <c r="L13" t="n">
         <v>20328.45875</v>
       </c>
-      <c r="M13" t="n">
-        <v>11.51588235294118</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1107,9 +1066,6 @@
       <c r="L14" t="n">
         <v>9411.079861111111</v>
       </c>
-      <c r="M14" t="n">
-        <v>9.131764705882354</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1154,9 +1110,6 @@
       <c r="L15" t="n">
         <v>8791.101638888889</v>
       </c>
-      <c r="M15" t="n">
-        <v>9.131764705882354</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1201,9 +1154,6 @@
       <c r="L16" t="n">
         <v>9313.030583333333</v>
       </c>
-      <c r="M16" t="n">
-        <v>9.131764705882354</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1248,9 +1198,6 @@
       <c r="L17" t="n">
         <v>7283.675527777778</v>
       </c>
-      <c r="M17" t="n">
-        <v>12.44411764705882</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1295,9 +1242,6 @@
       <c r="L18" t="n">
         <v>14383.65822222222</v>
       </c>
-      <c r="M18" t="n">
-        <v>12.44411764705882</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1341,9 +1285,6 @@
       </c>
       <c r="L19" t="n">
         <v>10487.19562962963</v>
-      </c>
-      <c r="M19" t="n">
-        <v>12.44411764705882</v>
       </c>
     </row>
   </sheetData>
